--- a/data/processed_data/clean_data_temp/一般纳税人.xlsx
+++ b/data/processed_data/clean_data_temp/一般纳税人.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\75697\PycharmProjects\BFSUIEEEISIWorldCup\data\processed_data\clean_data_temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C56BF22-6882-4B36-BC4B-30193FA095E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -457,12 +463,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -470,8 +476,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -517,15 +530,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,7 +588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,9 +620,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,6 +672,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,14 +865,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -873,7 +937,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -890,7 +954,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1006</v>
       </c>
@@ -907,7 +971,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1006</v>
       </c>
@@ -930,7 +994,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1013</v>
       </c>
@@ -947,7 +1011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1013</v>
       </c>
@@ -970,7 +1034,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1016</v>
       </c>
@@ -993,7 +1057,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1020</v>
       </c>
@@ -1016,7 +1080,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1033</v>
       </c>
@@ -1036,7 +1100,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1044</v>
       </c>
@@ -1059,7 +1123,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1054</v>
       </c>
@@ -1076,7 +1140,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1054</v>
       </c>
@@ -1099,7 +1163,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1055</v>
       </c>
@@ -1122,7 +1186,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1063</v>
       </c>
@@ -1145,7 +1209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1069</v>
       </c>
@@ -1168,7 +1232,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1070</v>
       </c>
@@ -1185,7 +1249,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1074</v>
       </c>
@@ -1208,7 +1272,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1074</v>
       </c>
@@ -1225,7 +1289,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1077</v>
       </c>
@@ -1248,7 +1312,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1080</v>
       </c>
@@ -1265,7 +1329,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1083</v>
       </c>
@@ -1282,7 +1346,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1083</v>
       </c>
@@ -1305,7 +1369,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1094</v>
       </c>
@@ -1328,7 +1392,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1098</v>
       </c>
@@ -1351,7 +1415,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1123</v>
       </c>
@@ -1374,7 +1438,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1124</v>
       </c>
@@ -1397,7 +1461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1141</v>
       </c>
@@ -1414,7 +1478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1141</v>
       </c>
@@ -1437,7 +1501,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1142</v>
       </c>
@@ -1460,7 +1524,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1162</v>
       </c>
@@ -1483,7 +1547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1164</v>
       </c>
@@ -1506,7 +1570,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1176</v>
       </c>
@@ -1529,7 +1593,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1211</v>
       </c>
@@ -1546,7 +1610,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1229</v>
       </c>
@@ -1569,7 +1633,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1234</v>
       </c>
@@ -1592,7 +1656,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1239</v>
       </c>
@@ -1609,7 +1673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1239</v>
       </c>
@@ -1632,7 +1696,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1263</v>
       </c>
@@ -1649,7 +1713,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1265</v>
       </c>
@@ -1672,7 +1736,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1270</v>
       </c>
@@ -1695,7 +1759,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1349</v>
       </c>
@@ -1718,7 +1782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1353</v>
       </c>
@@ -1735,7 +1799,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1375</v>
       </c>
@@ -1752,7 +1816,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1394</v>
       </c>
@@ -1775,7 +1839,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1395</v>
       </c>
@@ -1792,7 +1856,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1402</v>
       </c>
@@ -1815,7 +1879,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1405</v>
       </c>
@@ -1838,7 +1902,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1405</v>
       </c>
@@ -1855,7 +1919,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1409</v>
       </c>
@@ -1878,7 +1942,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1416</v>
       </c>
@@ -1901,7 +1965,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1424</v>
       </c>
@@ -1918,7 +1982,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1428</v>
       </c>
@@ -1941,7 +2005,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1484</v>
       </c>
@@ -1964,7 +2028,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1488</v>
       </c>
@@ -1987,7 +2051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1489</v>
       </c>
@@ -2010,7 +2074,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1491</v>
       </c>
@@ -2033,7 +2097,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1492</v>
       </c>
@@ -2050,7 +2114,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1492</v>
       </c>
@@ -2073,7 +2137,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1493</v>
       </c>
@@ -2096,7 +2160,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1493</v>
       </c>
@@ -2113,7 +2177,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1496</v>
       </c>
@@ -2136,7 +2200,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1497</v>
       </c>
@@ -2153,7 +2217,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1497</v>
       </c>
@@ -2176,7 +2240,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1498</v>
       </c>
@@ -2199,7 +2263,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1499</v>
       </c>
@@ -2222,7 +2286,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1500</v>
       </c>
@@ -2245,7 +2309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1501</v>
       </c>
@@ -2262,7 +2326,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1501</v>
       </c>
@@ -2285,7 +2349,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1502</v>
       </c>
@@ -2308,7 +2372,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1504</v>
       </c>
@@ -2331,7 +2395,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1505</v>
       </c>
@@ -2354,7 +2418,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1506</v>
       </c>
@@ -2371,7 +2435,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1506</v>
       </c>
@@ -2394,7 +2458,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1507</v>
       </c>
@@ -2411,7 +2475,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1507</v>
       </c>
@@ -2434,7 +2498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1508</v>
       </c>
@@ -2457,7 +2521,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1509</v>
       </c>
@@ -2480,7 +2544,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1509</v>
       </c>
@@ -2497,7 +2561,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1510</v>
       </c>
@@ -2520,7 +2584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1511</v>
       </c>
@@ -2543,7 +2607,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1512</v>
       </c>
@@ -2566,7 +2630,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1513</v>
       </c>
@@ -2589,7 +2653,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1513</v>
       </c>
@@ -2606,7 +2670,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1514</v>
       </c>
@@ -2629,7 +2693,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1516</v>
       </c>
@@ -2652,7 +2716,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1517</v>
       </c>
@@ -2675,7 +2739,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1518</v>
       </c>
@@ -2698,7 +2762,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1519</v>
       </c>
@@ -2715,7 +2779,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1519</v>
       </c>
@@ -2738,7 +2802,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1520</v>
       </c>
@@ -2761,7 +2825,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1521</v>
       </c>
@@ -2784,7 +2848,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1522</v>
       </c>
@@ -2807,7 +2871,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1523</v>
       </c>
@@ -2830,7 +2894,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1523</v>
       </c>
@@ -2847,7 +2911,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1524</v>
       </c>
@@ -2870,7 +2934,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1525</v>
       </c>
@@ -2893,7 +2957,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1528</v>
       </c>
@@ -2916,7 +2980,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1529</v>
       </c>
@@ -2933,7 +2997,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1529</v>
       </c>
@@ -2956,7 +3020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1530</v>
       </c>
@@ -2979,7 +3043,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1531</v>
       </c>
@@ -3002,7 +3066,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1531</v>
       </c>
@@ -3019,7 +3083,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1532</v>
       </c>
@@ -3042,7 +3106,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1533</v>
       </c>
@@ -3065,7 +3129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1534</v>
       </c>
@@ -3088,7 +3152,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1535</v>
       </c>
@@ -3105,7 +3169,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1536</v>
       </c>
@@ -3122,7 +3186,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1536</v>
       </c>
@@ -3145,7 +3209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1541</v>
       </c>
@@ -3168,7 +3232,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1542</v>
       </c>
@@ -3191,7 +3255,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1548</v>
       </c>
@@ -3211,7 +3275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1551</v>
       </c>
@@ -3228,7 +3292,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1551</v>
       </c>
@@ -3251,7 +3315,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1552</v>
       </c>
@@ -3274,7 +3338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1555</v>
       </c>
@@ -3297,7 +3361,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1563</v>
       </c>
@@ -3314,7 +3378,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1563</v>
       </c>
@@ -3337,7 +3401,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1564</v>
       </c>
@@ -3360,7 +3424,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1567</v>
       </c>
@@ -3383,7 +3447,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1567</v>
       </c>
@@ -3400,7 +3464,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1570</v>
       </c>
@@ -3423,7 +3487,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1571</v>
       </c>
@@ -3446,7 +3510,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1582</v>
       </c>
@@ -3463,7 +3527,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1582</v>
       </c>
@@ -3486,7 +3550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1605</v>
       </c>
@@ -3506,7 +3570,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1605</v>
       </c>
@@ -3529,7 +3593,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1614</v>
       </c>
@@ -3549,7 +3613,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1614</v>
       </c>
@@ -3572,7 +3636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1621</v>
       </c>
@@ -3595,7 +3659,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1621</v>
       </c>
@@ -3612,7 +3676,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1626</v>
       </c>
@@ -3635,7 +3699,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1638</v>
       </c>
@@ -3652,7 +3716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1644</v>
       </c>
@@ -3669,7 +3733,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1681</v>
       </c>
@@ -3692,7 +3756,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1683</v>
       </c>
@@ -3715,7 +3779,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1684</v>
       </c>
@@ -3738,7 +3802,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1685</v>
       </c>
@@ -3755,7 +3819,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1685</v>
       </c>
@@ -3778,7 +3842,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1687</v>
       </c>
@@ -3801,7 +3865,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1688</v>
       </c>
@@ -3824,7 +3888,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1689</v>
       </c>
@@ -3847,7 +3911,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1690</v>
       </c>
@@ -3864,7 +3928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1690</v>
       </c>
@@ -3887,7 +3951,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1691</v>
       </c>
@@ -3910,7 +3974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1691</v>
       </c>
@@ -3927,7 +3991,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1692</v>
       </c>
@@ -3944,7 +4008,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1692</v>
       </c>
@@ -3967,7 +4031,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1697</v>
       </c>
@@ -3990,7 +4054,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1698</v>
       </c>
@@ -4013,7 +4077,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1699</v>
       </c>
@@ -4036,7 +4100,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1699</v>
       </c>
@@ -4053,7 +4117,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1700</v>
       </c>
@@ -4076,7 +4140,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1701</v>
       </c>
@@ -4099,7 +4163,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1702</v>
       </c>
@@ -4116,7 +4180,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1702</v>
       </c>
@@ -4139,7 +4203,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1704</v>
       </c>
@@ -4162,7 +4226,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1705</v>
       </c>
@@ -4185,7 +4249,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1706</v>
       </c>
@@ -4208,7 +4272,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1707</v>
       </c>
@@ -4231,7 +4295,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1707</v>
       </c>
@@ -4248,7 +4312,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1708</v>
       </c>
@@ -4265,7 +4329,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1708</v>
       </c>
@@ -4288,7 +4352,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1710</v>
       </c>
@@ -4305,7 +4369,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1710</v>
       </c>
@@ -4328,7 +4392,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1711</v>
       </c>
@@ -4345,7 +4409,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1711</v>
       </c>
@@ -4368,7 +4432,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1712</v>
       </c>
@@ -4391,7 +4455,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1751</v>
       </c>
@@ -4414,7 +4478,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1767</v>
       </c>
@@ -4437,7 +4501,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1819</v>
       </c>
@@ -4460,7 +4524,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1859</v>
       </c>
@@ -4483,7 +4547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1861</v>
       </c>
@@ -4506,7 +4570,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1867</v>
       </c>
@@ -4523,7 +4587,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1869</v>
       </c>
@@ -4546,7 +4610,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1869</v>
       </c>
@@ -4563,7 +4627,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1870</v>
       </c>
@@ -4586,7 +4650,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1879</v>
       </c>
@@ -4609,7 +4673,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1884</v>
       </c>
@@ -4626,7 +4690,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1896</v>
       </c>
@@ -4649,7 +4713,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1904</v>
       </c>
@@ -4672,7 +4736,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1907</v>
       </c>
@@ -4695,7 +4759,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1909</v>
       </c>
@@ -4718,7 +4782,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1912</v>
       </c>
@@ -4741,7 +4805,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1929</v>
       </c>
@@ -4758,7 +4822,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1929</v>
       </c>
@@ -4781,7 +4845,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1941</v>
       </c>
@@ -4804,7 +4868,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1946</v>
       </c>
@@ -4827,7 +4891,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1948</v>
       </c>
@@ -4847,7 +4911,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1954</v>
       </c>
@@ -4864,7 +4928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1973</v>
       </c>
@@ -4887,7 +4951,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1991</v>
       </c>
@@ -4910,7 +4974,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1994</v>
       </c>
@@ -4933,7 +4997,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1997</v>
       </c>
@@ -4956,7 +5020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2004</v>
       </c>
@@ -4979,7 +5043,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2004</v>
       </c>
@@ -4996,7 +5060,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2006</v>
       </c>
@@ -5019,7 +5083,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2013</v>
       </c>
@@ -5036,7 +5100,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2013</v>
       </c>
@@ -5059,7 +5123,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2019</v>
       </c>
@@ -5082,7 +5146,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -5099,7 +5163,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2021</v>
       </c>
@@ -5122,7 +5186,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2029</v>
       </c>
@@ -5145,7 +5209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2043</v>
       </c>
@@ -5168,7 +5232,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2050</v>
       </c>
@@ -5185,7 +5249,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2057</v>
       </c>
@@ -5208,7 +5272,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2061</v>
       </c>
@@ -5228,7 +5292,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2064</v>
       </c>
@@ -5251,7 +5315,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2068</v>
       </c>
@@ -5274,7 +5338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2070</v>
       </c>
@@ -5297,7 +5361,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2076</v>
       </c>
@@ -5320,7 +5384,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2078</v>
       </c>
@@ -5343,7 +5407,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2096</v>
       </c>
@@ -5366,7 +5430,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2097</v>
       </c>
@@ -5389,7 +5453,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2098</v>
       </c>
@@ -5412,7 +5476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2099</v>
       </c>
@@ -5435,7 +5499,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2102</v>
       </c>
@@ -5452,7 +5516,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2102</v>
       </c>
@@ -5475,7 +5539,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2105</v>
       </c>
@@ -5498,7 +5562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2107</v>
       </c>
@@ -5515,7 +5579,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2111</v>
       </c>
@@ -5538,7 +5602,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2115</v>
       </c>
@@ -5561,7 +5625,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2147</v>
       </c>
@@ -5578,7 +5642,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2152</v>
       </c>
@@ -5601,7 +5665,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2153</v>
       </c>
@@ -5624,7 +5688,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2170</v>
       </c>
@@ -5647,7 +5711,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2176</v>
       </c>
@@ -5670,7 +5734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2194</v>
       </c>
@@ -5693,7 +5757,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2198</v>
       </c>
@@ -5716,7 +5780,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2199</v>
       </c>
@@ -5739,7 +5803,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2201</v>
       </c>
@@ -5762,7 +5826,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2206</v>
       </c>
@@ -5785,7 +5849,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2222</v>
       </c>
@@ -5802,7 +5866,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2229</v>
       </c>
@@ -5825,7 +5889,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2230</v>
       </c>
@@ -5848,7 +5912,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2234</v>
       </c>
@@ -5871,7 +5935,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2235</v>
       </c>
@@ -5888,7 +5952,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2244</v>
       </c>
@@ -5905,7 +5969,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2257</v>
       </c>
@@ -5928,7 +5992,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2262</v>
       </c>
@@ -5951,7 +6015,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2267</v>
       </c>
@@ -5974,7 +6038,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2268</v>
       </c>
@@ -5997,7 +6061,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2273</v>
       </c>
@@ -6020,7 +6084,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2287</v>
       </c>
@@ -6043,7 +6107,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2291</v>
       </c>
@@ -6066,7 +6130,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2296</v>
       </c>
@@ -6083,7 +6147,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2304</v>
       </c>
@@ -6106,7 +6170,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2307</v>
       </c>
@@ -6129,7 +6193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2313</v>
       </c>
@@ -6152,7 +6216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2314</v>
       </c>
@@ -6175,7 +6239,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2315</v>
       </c>
@@ -6198,7 +6262,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2326</v>
       </c>
@@ -6221,7 +6285,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2332</v>
       </c>
@@ -6244,7 +6308,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2353</v>
       </c>
@@ -6261,7 +6325,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2360</v>
       </c>
@@ -6278,7 +6342,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2360</v>
       </c>
@@ -6301,7 +6365,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2367</v>
       </c>
@@ -6324,7 +6388,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2375</v>
       </c>
@@ -6347,7 +6411,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2378</v>
       </c>
@@ -6370,7 +6434,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2379</v>
       </c>
@@ -6393,7 +6457,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2380</v>
       </c>
@@ -6416,7 +6480,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2380</v>
       </c>
@@ -6433,7 +6497,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2383</v>
       </c>
@@ -6456,7 +6520,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2387</v>
       </c>
@@ -6479,7 +6543,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2397</v>
       </c>
@@ -6502,7 +6566,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2397</v>
       </c>
@@ -6522,7 +6586,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2403</v>
       </c>
@@ -6539,7 +6603,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2412</v>
       </c>
@@ -6562,7 +6626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2425</v>
       </c>
@@ -6585,7 +6649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2429</v>
       </c>
@@ -6608,7 +6672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2655</v>
       </c>
@@ -6631,7 +6695,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2788</v>
       </c>
@@ -6651,7 +6715,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2912</v>
       </c>
@@ -6674,7 +6738,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2918</v>
       </c>
@@ -6697,7 +6761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2948</v>
       </c>
@@ -6720,7 +6784,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2952</v>
       </c>
@@ -6737,7 +6801,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2969</v>
       </c>
@@ -6754,7 +6818,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2991</v>
       </c>
@@ -6771,7 +6835,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>3002</v>
       </c>
@@ -6788,7 +6852,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>3003</v>
       </c>
@@ -6811,7 +6875,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>3003</v>
       </c>
@@ -6828,7 +6892,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>3042</v>
       </c>
@@ -6851,7 +6915,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3046</v>
       </c>
@@ -6868,7 +6932,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3046</v>
       </c>
@@ -6891,7 +6955,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3062</v>
       </c>
@@ -6914,7 +6978,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3062</v>
       </c>
@@ -6931,7 +6995,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>3068</v>
       </c>
@@ -6954,7 +7018,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3079</v>
       </c>
@@ -6977,7 +7041,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>3085</v>
       </c>
@@ -6994,7 +7058,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3136</v>
       </c>
@@ -7017,7 +7081,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3152</v>
       </c>
@@ -7040,7 +7104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3161</v>
       </c>
@@ -7063,7 +7127,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3205</v>
       </c>
@@ -7086,7 +7150,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>3206</v>
       </c>
@@ -7103,7 +7167,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>3209</v>
       </c>
@@ -7120,7 +7184,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>3209</v>
       </c>
@@ -7143,7 +7207,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>3216</v>
       </c>
@@ -7160,7 +7224,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>3222</v>
       </c>
@@ -7177,7 +7241,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3239</v>
       </c>
@@ -7194,7 +7258,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3247</v>
       </c>
@@ -7211,7 +7275,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3255</v>
       </c>
@@ -7231,7 +7295,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3277</v>
       </c>
@@ -7248,7 +7312,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3281</v>
       </c>
@@ -7268,7 +7332,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3281</v>
       </c>
@@ -7291,7 +7355,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3299</v>
       </c>
@@ -7308,7 +7372,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3309</v>
       </c>
@@ -7325,7 +7389,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>3329</v>
       </c>
@@ -7348,7 +7412,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3332</v>
       </c>
@@ -7371,7 +7435,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3358</v>
       </c>
@@ -7388,7 +7452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3360</v>
       </c>
@@ -7408,7 +7472,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>3364</v>
       </c>
@@ -7431,7 +7495,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3384</v>
       </c>
@@ -7454,7 +7518,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3403</v>
       </c>
@@ -7477,7 +7541,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>3437</v>
       </c>
@@ -7494,7 +7558,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3437</v>
       </c>
@@ -7517,7 +7581,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>3439</v>
       </c>
@@ -7534,7 +7598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3440</v>
       </c>
@@ -7551,7 +7615,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3443</v>
       </c>
@@ -7574,7 +7638,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3480</v>
       </c>
@@ -7597,7 +7661,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3484</v>
       </c>
@@ -7614,7 +7678,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3511</v>
       </c>
@@ -7637,7 +7701,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3517</v>
       </c>
@@ -7654,7 +7718,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3533</v>
       </c>
@@ -7674,7 +7738,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>3537</v>
       </c>
@@ -7691,7 +7755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>3543</v>
       </c>
@@ -7714,7 +7778,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3562</v>
       </c>
@@ -7731,7 +7795,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3571</v>
       </c>
@@ -7748,7 +7812,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3577</v>
       </c>
@@ -7771,7 +7835,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3619</v>
       </c>
@@ -7788,7 +7852,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>3646</v>
       </c>
@@ -7805,7 +7869,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3673</v>
       </c>
@@ -7822,7 +7886,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>3683</v>
       </c>
@@ -7839,7 +7903,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>3686</v>
       </c>
@@ -7862,7 +7926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3713</v>
       </c>
@@ -7879,7 +7943,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>3715</v>
       </c>
@@ -7902,7 +7966,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>3781</v>
       </c>
@@ -7919,7 +7983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3795</v>
       </c>
@@ -7936,7 +8000,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3797</v>
       </c>
@@ -7953,7 +8017,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>3802</v>
       </c>
@@ -7976,7 +8040,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3811</v>
       </c>
@@ -7999,7 +8063,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3814</v>
       </c>
@@ -8016,7 +8080,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3833</v>
       </c>
@@ -8039,7 +8103,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>3838</v>
       </c>
@@ -8056,7 +8120,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3853</v>
       </c>
@@ -8079,7 +8143,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>3853</v>
       </c>
@@ -8096,7 +8160,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3854</v>
       </c>
@@ -8119,7 +8183,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>3860</v>
       </c>
@@ -8142,7 +8206,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>3867</v>
       </c>
@@ -8165,7 +8229,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>3917</v>
       </c>
@@ -8188,7 +8252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>3920</v>
       </c>
@@ -8211,7 +8275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3944</v>
       </c>
@@ -8234,7 +8298,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3958</v>
       </c>
@@ -8251,7 +8315,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>3958</v>
       </c>
@@ -8274,7 +8338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>3960</v>
       </c>
@@ -8297,7 +8361,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3961</v>
       </c>
@@ -8320,7 +8384,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3970</v>
       </c>
@@ -8344,6 +8408,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>